--- a/Connect ED_Social networking web application/Test cases/CON 181_US-3.1_User search and filter_TCs.xlsx
+++ b/Connect ED_Social networking web application/Test cases/CON 181_US-3.1_User search and filter_TCs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/saksham_bahuguna_dxc_com/Documents/Pictures/Screenshots/Alchemy Program/Project 5_Social networking web application/Sprint 1/Test cases/US 3_Search and Filter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/saksham_bahuguna_dxc_com/Documents/Pictures/Screenshots/Alchemy Program/Project 5_Social networking web application/Sprint 1/Connect ED_Social networking web application/Test cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{6BEFB749-E610-4E8C-A9E6-ECB0A0BD8AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B578973-3E28-48C3-B9E4-07DEF3A05FCC}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{6BEFB749-E610-4E8C-A9E6-ECB0A0BD8AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4396A9B7-42C8-4D52-9882-6A645750C3B9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB555361-C202-42F7-AB72-ABC48CA82E11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
   <si>
     <t>Subject</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>CON 181</t>
+  </si>
+  <si>
+    <t>Relevant searches should be displayed</t>
   </si>
 </sst>
 </file>
@@ -629,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8D137F-15F3-4AF5-93A6-EE3F3F6817CE}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="67" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="67" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -860,7 +863,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
